--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Bmp2-Eng.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Bmp2-Eng.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>9.163165666666666</v>
+        <v>0.7170026666666667</v>
       </c>
       <c r="H2">
-        <v>27.489497</v>
+        <v>2.151008</v>
       </c>
       <c r="I2">
-        <v>0.2800251397703982</v>
+        <v>0.02953485643833859</v>
       </c>
       <c r="J2">
-        <v>0.2800251397703982</v>
+        <v>0.02953485643833859</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>114.155417</v>
+        <v>201.098592</v>
       </c>
       <c r="N2">
-        <v>342.466251</v>
+        <v>603.295776</v>
       </c>
       <c r="O2">
-        <v>0.6835107367845005</v>
+        <v>0.7918622805845071</v>
       </c>
       <c r="P2">
-        <v>0.6835107367845005</v>
+        <v>0.791862280584507</v>
       </c>
       <c r="Q2">
-        <v>1046.024997718416</v>
+        <v>144.188226726912</v>
       </c>
       <c r="R2">
-        <v>9414.224979465747</v>
+        <v>1297.694040542208</v>
       </c>
       <c r="S2">
-        <v>0.1914001896026476</v>
+        <v>0.02338753877599881</v>
       </c>
       <c r="T2">
-        <v>0.1914001896026476</v>
+        <v>0.02338753877599881</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>9.163165666666666</v>
+        <v>0.7170026666666667</v>
       </c>
       <c r="H3">
-        <v>27.489497</v>
+        <v>2.151008</v>
       </c>
       <c r="I3">
-        <v>0.2800251397703982</v>
+        <v>0.02953485643833859</v>
       </c>
       <c r="J3">
-        <v>0.2800251397703982</v>
+        <v>0.02953485643833859</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>107.773605</v>
       </c>
       <c r="O3">
-        <v>0.2150997826628812</v>
+        <v>0.1414593902976603</v>
       </c>
       <c r="P3">
-        <v>0.2150997826628812</v>
+        <v>0.1414593902976603</v>
       </c>
       <c r="Q3">
-        <v>329.182465702965</v>
+        <v>25.75798739376</v>
       </c>
       <c r="R3">
-        <v>2962.642191326685</v>
+        <v>231.82188654384</v>
       </c>
       <c r="S3">
-        <v>0.06023334670475557</v>
+        <v>0.004177982784296303</v>
       </c>
       <c r="T3">
-        <v>0.06023334670475558</v>
+        <v>0.004177982784296303</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>9.163165666666666</v>
+        <v>0.7170026666666667</v>
       </c>
       <c r="H4">
-        <v>27.489497</v>
+        <v>2.151008</v>
       </c>
       <c r="I4">
-        <v>0.2800251397703982</v>
+        <v>0.02953485643833859</v>
       </c>
       <c r="J4">
-        <v>0.2800251397703982</v>
+        <v>0.02953485643833859</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>50.80019</v>
       </c>
       <c r="O4">
-        <v>0.1013894805526183</v>
+        <v>0.0666783291178327</v>
       </c>
       <c r="P4">
-        <v>0.1013894805526183</v>
+        <v>0.06667832911783268</v>
       </c>
       <c r="Q4">
-        <v>155.1635189560478</v>
+        <v>12.14129056572444</v>
       </c>
       <c r="R4">
-        <v>1396.47167060443</v>
+        <v>109.27161509152</v>
       </c>
       <c r="S4">
-        <v>0.02839160346299502</v>
+        <v>0.00196933487804348</v>
       </c>
       <c r="T4">
-        <v>0.02839160346299502</v>
+        <v>0.00196933487804348</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>36.201142</v>
       </c>
       <c r="I5">
-        <v>0.3687673822623249</v>
+        <v>0.4970672037825566</v>
       </c>
       <c r="J5">
-        <v>0.3687673822623249</v>
+        <v>0.4970672037825566</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>114.155417</v>
+        <v>201.098592</v>
       </c>
       <c r="N5">
-        <v>342.466251</v>
+        <v>603.295776</v>
       </c>
       <c r="O5">
-        <v>0.6835107367845005</v>
+        <v>0.7918622805845071</v>
       </c>
       <c r="P5">
-        <v>0.6835107367845005</v>
+        <v>0.791862280584507</v>
       </c>
       <c r="Q5">
-        <v>1377.518820295405</v>
+        <v>2426.666228330688</v>
       </c>
       <c r="R5">
-        <v>12397.66938265864</v>
+        <v>21839.99605497619</v>
       </c>
       <c r="S5">
-        <v>0.2520564651522132</v>
+        <v>0.3936087695910192</v>
       </c>
       <c r="T5">
-        <v>0.2520564651522132</v>
+        <v>0.3936087695910191</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>36.201142</v>
       </c>
       <c r="I6">
-        <v>0.3687673822623249</v>
+        <v>0.4970672037825566</v>
       </c>
       <c r="J6">
-        <v>0.3687673822623249</v>
+        <v>0.4970672037825566</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>107.773605</v>
       </c>
       <c r="O6">
-        <v>0.2150997826628812</v>
+        <v>0.1414593902976603</v>
       </c>
       <c r="P6">
-        <v>0.2150997826628812</v>
+        <v>0.1414593902976603</v>
       </c>
       <c r="Q6">
-        <v>433.5030642729901</v>
+        <v>433.5030642729899</v>
       </c>
       <c r="R6">
-        <v>3901.527578456911</v>
+        <v>3901.52757845691</v>
       </c>
       <c r="S6">
-        <v>0.07932178377778572</v>
+        <v>0.07031482358404331</v>
       </c>
       <c r="T6">
-        <v>0.07932178377778573</v>
+        <v>0.07031482358404331</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>36.201142</v>
       </c>
       <c r="I7">
-        <v>0.3687673822623249</v>
+        <v>0.4970672037825566</v>
       </c>
       <c r="J7">
-        <v>0.3687673822623249</v>
+        <v>0.4970672037825566</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,22 +868,22 @@
         <v>50.80019</v>
       </c>
       <c r="O7">
-        <v>0.1013894805526183</v>
+        <v>0.0666783291178327</v>
       </c>
       <c r="P7">
-        <v>0.1013894805526183</v>
+        <v>0.06667832911783268</v>
       </c>
       <c r="Q7">
-        <v>204.3360990907756</v>
+        <v>204.3360990907755</v>
       </c>
       <c r="R7">
         <v>1839.02489181698</v>
       </c>
       <c r="S7">
-        <v>0.03738913333232597</v>
+        <v>0.03314361060749412</v>
       </c>
       <c r="T7">
-        <v>0.03738913333232597</v>
+        <v>0.03314361060749411</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>34.477322</v>
       </c>
       <c r="I8">
-        <v>0.3512074779672769</v>
+        <v>0.4733979397791048</v>
       </c>
       <c r="J8">
-        <v>0.3512074779672769</v>
+        <v>0.4733979397791048</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>114.155417</v>
+        <v>201.098592</v>
       </c>
       <c r="N8">
-        <v>342.466251</v>
+        <v>603.295776</v>
       </c>
       <c r="O8">
-        <v>0.6835107367845005</v>
+        <v>0.7918622805845071</v>
       </c>
       <c r="P8">
-        <v>0.6835107367845005</v>
+        <v>0.791862280584507</v>
       </c>
       <c r="Q8">
-        <v>1311.924356651091</v>
+        <v>2311.113636710209</v>
       </c>
       <c r="R8">
-        <v>11807.31920985982</v>
+        <v>20800.02273039187</v>
       </c>
       <c r="S8">
-        <v>0.2400540820296397</v>
+        <v>0.3748659722174891</v>
       </c>
       <c r="T8">
-        <v>0.2400540820296397</v>
+        <v>0.3748659722174891</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>34.477322</v>
       </c>
       <c r="I9">
-        <v>0.3512074779672769</v>
+        <v>0.4733979397791048</v>
       </c>
       <c r="J9">
-        <v>0.3512074779672769</v>
+        <v>0.4733979397791048</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>107.773605</v>
       </c>
       <c r="O9">
-        <v>0.2150997826628812</v>
+        <v>0.1414593902976603</v>
       </c>
       <c r="P9">
-        <v>0.2150997826628812</v>
+        <v>0.1414593902976603</v>
       </c>
       <c r="Q9">
         <v>412.86058696509</v>
@@ -1004,10 +1004,10 @@
         <v>3715.74528268581</v>
       </c>
       <c r="S9">
-        <v>0.0755446521803399</v>
+        <v>0.06696658392932066</v>
       </c>
       <c r="T9">
-        <v>0.0755446521803399</v>
+        <v>0.06696658392932066</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>34.477322</v>
       </c>
       <c r="I10">
-        <v>0.3512074779672769</v>
+        <v>0.4733979397791048</v>
       </c>
       <c r="J10">
-        <v>0.3512074779672769</v>
+        <v>0.4733979397791048</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>50.80019</v>
       </c>
       <c r="O10">
-        <v>0.1013894805526183</v>
+        <v>0.0666783291178327</v>
       </c>
       <c r="P10">
-        <v>0.1013894805526183</v>
+        <v>0.06667832911783268</v>
       </c>
       <c r="Q10">
         <v>194.6060564767978</v>
@@ -1066,10 +1066,10 @@
         <v>1751.45450829118</v>
       </c>
       <c r="S10">
-        <v>0.03560874375729736</v>
+        <v>0.03156538363229509</v>
       </c>
       <c r="T10">
-        <v>0.03560874375729736</v>
+        <v>0.03156538363229509</v>
       </c>
     </row>
   </sheetData>
